--- a/www/Documentos/tablasDocumentacion.xlsx
+++ b/www/Documentos/tablasDocumentacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Copia de medidasEconomicasCovid19/www/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DB66FD-E9F7-6A42-BC53-A38A089DB424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8145CAAE-65CF-B54A-A108-E38710833E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{9D62B85A-8A3E-A845-9A5B-6366B3E75DAC}"/>
+    <workbookView xWindow="15140" yWindow="580" windowWidth="17240" windowHeight="15900" activeTab="1" xr2:uid="{9D62B85A-8A3E-A845-9A5B-6366B3E75DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="categorias" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Entidad</t>
   </si>
   <si>
-    <t>Evento</t>
-  </si>
-  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -249,21 +246,9 @@
     <t>Entidad federativa de México</t>
   </si>
   <si>
-    <t>Evento que genera la contingencia. En este caso, es el virus que genera la enfermedad Covid-19</t>
-  </si>
-  <si>
-    <t>Categoría en la que se engloba la política</t>
-  </si>
-  <si>
     <t>Programa institucional del gobierno del estado en el que aparece la medida descrita</t>
   </si>
   <si>
-    <t>La medida planteada por el gobierno</t>
-  </si>
-  <si>
-    <t>Periodo en el cuál va a trabajar la medida; Contingencia, implica que la medida es para mitigar los efectos económicos de la contingencia, mientras que Día D hace referencia al periodo después de la contingencia.</t>
-  </si>
-  <si>
     <t>Artículo o comunicación oficial emitida por parte del gobierno o de un medio de comunicación donde se explica la medida</t>
   </si>
   <si>
@@ -274,6 +259,33 @@
   </si>
   <si>
     <t>Abastecimiento</t>
+  </si>
+  <si>
+    <t>Tipo de Programa</t>
+  </si>
+  <si>
+    <t>Tipo del programa en el que se clasfica a la intervención de política pública</t>
+  </si>
+  <si>
+    <t>Categoría de Apoyo</t>
+  </si>
+  <si>
+    <t>Categoría de clasificación del apoyo brindado a algún sector social y/o económico</t>
+  </si>
+  <si>
+    <t>Población o Sector Objetivo del programa.</t>
+  </si>
+  <si>
+    <t>La medida de apoyo planteada por el gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo en el cuál va a trabajar la medida; ver tabla de Temporalidad para más información. </t>
+  </si>
+  <si>
+    <t>Monto Presupuestado</t>
+  </si>
+  <si>
+    <t>Monto de presupuesto asignado a la medida</t>
   </si>
 </sst>
 </file>
@@ -651,250 +663,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B665B51B-1A7B-DF49-BD64-914115C71C30}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60E6F1A-A28C-744D-9C25-EDAC2A44AEBE}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,10 +930,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,72 +941,94 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
